--- a/Timing Category.xlsx
+++ b/Timing Category.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="Timing_Category"/>
   </sheets>
   <definedNames>
-    <definedName name="Timing_Category">'Timing_Category'!$A$1:$C$10</definedName>
+    <definedName name="Timing_Category">'Timing_Category'!$A$1:$C$11</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -493,6 +493,21 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="11">
+      <c r="A11" s="0">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>Hindcast</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>Use the model to estimate unobserved past conditions</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Timing Category.xlsx
+++ b/Timing Category.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="Timing_Category"/>
   </sheets>
   <definedNames>
-    <definedName name="Timing_Category">'Timing_Category'!$A$1:$C$11</definedName>
+    <definedName name="Timing_Category">'Timing_Category'!$A$1:$C$9</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -374,12 +374,12 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>Historic Lookback</t>
+          <t>Recent Past</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>Look  at historical data from model for (e.g.) Forensics of drift analysis</t>
+          <t>Need to look back at recent data from model for (e.g.) Forensics, drift analysis, water quality.</t>
         </is>
       </c>
     </row>
@@ -394,7 +394,7 @@
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>Data needed about what is going on now, or more or less as information is generated</t>
+          <t>Data needed about what is going on now, or data needed as it is generated</t>
         </is>
       </c>
     </row>
@@ -409,7 +409,7 @@
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>Looking forward a few days</t>
+          <t>Looking forward a few days, including estimated current conditions</t>
         </is>
       </c>
     </row>
@@ -424,7 +424,7 @@
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>Informaiton about behavior under a specific extreme event</t>
+          <t>Information about behavior under a specific extreme event, like the "100 year storm"</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>Scenarios other than storms or floods, such as low flow conditions, or exploration of alternatives</t>
+          <t>Scenarios other than storms or floods, such as sea level rise scenarios or low flow conditions</t>
         </is>
       </c>
     </row>
@@ -449,12 +449,12 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>Long Term</t>
+          <t>Pattern or Risk</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>Analysis of probability of certain outcomes, risk, long-term trends, typical conditions or "averages"</t>
+          <t>Analysis of  risk, probability of outcomes, long-term trends or "averages"</t>
         </is>
       </c>
     </row>
@@ -464,7 +464,7 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>Unclear or Unknown</t>
+          <t>Unclear</t>
         </is>
       </c>
     </row>
@@ -479,34 +479,14 @@
       </c>
     </row>
     <row outlineLevel="0" r="10">
-      <c r="A10" s="0">
-        <v>9</v>
-      </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>What If</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>Use of model to explore what would happen if you took certain actions</t>
-        </is>
-      </c>
+      <c r="A10" s="0"/>
+      <c r="B10" s="0" t="inlineStr"/>
+      <c r="C10" s="0" t="inlineStr"/>
     </row>
     <row outlineLevel="0" r="11">
-      <c r="A11" s="0">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>Hindcast</t>
-        </is>
-      </c>
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>Use the model to estimate unobserved past conditions</t>
-        </is>
-      </c>
+      <c r="A11" s="0"/>
+      <c r="B11" s="0" t="inlineStr"/>
+      <c r="C11" s="0" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Timing Category.xlsx
+++ b/Timing Category.xlsx
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -404,7 +404,7 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>Prediction</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
@@ -477,16 +477,6 @@
           <t>Other</t>
         </is>
       </c>
-    </row>
-    <row outlineLevel="0" r="10">
-      <c r="A10" s="0"/>
-      <c r="B10" s="0" t="inlineStr"/>
-      <c r="C10" s="0" t="inlineStr"/>
-    </row>
-    <row outlineLevel="0" r="11">
-      <c r="A11" s="0"/>
-      <c r="B11" s="0" t="inlineStr"/>
-      <c r="C11" s="0" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
